--- a/data-set/i-0d04f57c07b988001.xlsx
+++ b/data-set/i-0d04f57c07b988001.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,36 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>17:54:14</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>72.7119</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3880.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2368.0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-set/i-0d04f57c07b988001.xlsx
+++ b/data-set/i-0d04f57c07b988001.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,6 +522,763 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>17:58:47</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>99.66670000000001</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5530.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4737.0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>17:59:15</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>73.7705</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3576.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2168.0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18:04:15</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>73.1148</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3410.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2064.0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18:09:16</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3965.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2933.0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>18:18:17</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3132.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1732.0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>18:19:34</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4852.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3804.0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>18:19:55</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4852.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3804.0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>18:20:16</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>70.339</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3360.0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2060.0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>18:21:27</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>85.9016</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4564.0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2888.0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>18:26:27</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>73.83329999999999</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4686.0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2984.0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>18:31:28</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3318.0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2056.0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>18:34:26</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>71.83329999999999</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2424.0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1372.0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>18:39:27</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>86.10169999999999</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4124.0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2636.0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>18:44:28</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>73.9344</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3408.0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2184.0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>18:49:30</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>72.83329999999999</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3668.0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2268.0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>18:54:31</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4488.0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6505.0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>18:54:50</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4488.0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6505.0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>18:59:52</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2328.0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1244.0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>19:04:53</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2644.0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1298.0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>19:09:55</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>19:14:57</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>19:19:58</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>19:24:59</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>19:30:01</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>19:35:02</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>19:40:03</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>19:45:05</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>19:50:06</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>19:55:07</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>20:00:09</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
